--- a/data/AllTestCase.xlsx
+++ b/data/AllTestCase.xlsx
@@ -3,29 +3,243 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyanfei/Netease/在校大作业_测开/NeteaseWork/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0A07E00-112A-8D46-9ED1-F636F3C65142}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF69FB03-3353-5647-AB3C-3397AB94DC1B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15920" xr2:uid="{FFDDE153-C3E9-164E-B69E-D800EF1416BE}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="28240" windowHeight="15920" activeTab="1" xr2:uid="{FFDDE153-C3E9-164E-B69E-D800EF1416BE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="2" r:id="rId1"/>
+    <sheet name="Share" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+  <si>
+    <t>testCaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testCaseDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testStepDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionStep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成商品的虚假分享，不应提示分享成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testStep1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击搜索框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locatedType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testCaseId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testStepId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页-搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑猪肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share2</t>
+  </si>
+  <si>
+    <t>testStep2</t>
+  </si>
+  <si>
+    <t>com.netease.yanxuan:id/iv_home_search_icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share3</t>
+  </si>
+  <si>
+    <t>testStep3</t>
+  </si>
+  <si>
+    <t>com.netease.yanxuan:id/search_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.LinearLayout[1]/android.widget.RelativeLayout/android.widget.ImageView[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.yanxuan:id/share_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击第一件商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share4</t>
+  </si>
+  <si>
+    <t>share5</t>
+  </si>
+  <si>
+    <t>share6</t>
+  </si>
+  <si>
+    <t>testStep4</t>
+  </si>
+  <si>
+    <t>testStep5</t>
+  </si>
+  <si>
+    <t>testStep6</t>
+  </si>
+  <si>
+    <t>单击取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.yanxuan:id/btn_cancel_share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享成功! 点我抽奖</t>
+  </si>
+  <si>
+    <t>验证反馈信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享成功页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.yanxuan:id/btn_lottery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share7</t>
+  </si>
+  <si>
+    <t>testStep7</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -382,13 +596,297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2413392B-CAA2-C649-B52E-B41AD77F23E1}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B688841E-C2E7-1346-9908-BDC668EE5743}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="36.5" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2413392B-CAA2-C649-B52E-B41AD77F23E1}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="74.6640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/AllTestCase.xlsx
+++ b/data/AllTestCase.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyanfei/Netease/在校大作业_测开/NeteaseWork/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF69FB03-3353-5647-AB3C-3397AB94DC1B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA15AC1-CCE5-014A-8D77-2F013ECB017C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="28240" windowHeight="15920" activeTab="1" xr2:uid="{FFDDE153-C3E9-164E-B69E-D800EF1416BE}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="28240" windowHeight="15920" activeTab="2" xr2:uid="{FFDDE153-C3E9-164E-B69E-D800EF1416BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
     <sheet name="Share" sheetId="1" r:id="rId2"/>
+    <sheet name="Collect" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="110">
   <si>
     <t>testCaseName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,13 +234,207 @@
   </si>
   <si>
     <t>testStep7</t>
+  </si>
+  <si>
+    <t>collect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成商品的收藏及取消，在未登录的情况下，应跳转到登陆页面，在登陆的情况，可以正常收藏并取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证是否收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.yanxuan:id/imgbtn_add_favor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectedVerfity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>验证是否收藏成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toastVerfity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情页-Toast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textverfiy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>com.netease.yanxuan:id/btn_login_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证是否跳转到登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换登录方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.yanxuan:id/btn_change_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.yanxuan:id/account_edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.yanxuan:id/password_edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.yanxuan:id/check_box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>710662952lyf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证是否取消收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share8</t>
+  </si>
+  <si>
+    <t>share9</t>
+  </si>
+  <si>
+    <t>share10</t>
+  </si>
+  <si>
+    <t>share11</t>
+  </si>
+  <si>
+    <t>share12</t>
+  </si>
+  <si>
+    <t>share13</t>
+  </si>
+  <si>
+    <t>share14</t>
+  </si>
+  <si>
+    <t>share15</t>
+  </si>
+  <si>
+    <t>testStep8</t>
+  </si>
+  <si>
+    <t>testStep9</t>
+  </si>
+  <si>
+    <t>testStep10</t>
+  </si>
+  <si>
+    <t>testStep11</t>
+  </si>
+  <si>
+    <t>testStep12</t>
+  </si>
+  <si>
+    <t>testStep13</t>
+  </si>
+  <si>
+    <t>testStep14</t>
+  </si>
+  <si>
+    <t>testStep15</t>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15806284945</t>
+  </si>
+  <si>
+    <t>com.netease.yanxuan:id/imgbtn_add_favor</t>
+  </si>
+  <si>
+    <t>点击收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share16</t>
+  </si>
+  <si>
+    <t>share17</t>
+  </si>
+  <si>
+    <t>testStep16</t>
+  </si>
+  <si>
+    <t>testStep17</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -597,15 +792,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B688841E-C2E7-1346-9908-BDC668EE5743}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="36.5" collapsed="true"/>
+    <col min="2" max="2" width="94" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -630,10 +825,24 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -646,15 +855,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2413392B-CAA2-C649-B52E-B41AD77F23E1}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="74.6640625" collapsed="true"/>
+    <col min="3" max="3" width="15.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.83203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="74.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -880,10 +1089,557 @@
         <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
         <v>49</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D5883A-7146-9148-A736-E1E0970A45B2}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="28" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="56.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/AllTestCase.xlsx
+++ b/data/AllTestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyanfei/Netease/在校大作业_测开/NeteaseWork/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA15AC1-CCE5-014A-8D77-2F013ECB017C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84723DF-B90A-4C4C-9710-BCD09CB4013D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="500" windowWidth="28240" windowHeight="15920" activeTab="2" xr2:uid="{FFDDE153-C3E9-164E-B69E-D800EF1416BE}"/>
   </bookViews>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/AllTestCase.xlsx
+++ b/data/AllTestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyanfei/Netease/在校大作业_测开/NeteaseWork/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84723DF-B90A-4C4C-9710-BCD09CB4013D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6939A734-AAD0-554D-9EA6-9E41BA424E54}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="500" windowWidth="28240" windowHeight="15920" activeTab="2" xr2:uid="{FFDDE153-C3E9-164E-B69E-D800EF1416BE}"/>
   </bookViews>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
